--- a/OffPCBPartsRev2c.xlsx
+++ b/OffPCBPartsRev2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6DA597-0005-4387-90E2-790D0C7F0DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A07BDB-2A84-4621-898F-4ECF3819C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="2550" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
@@ -255,18 +255,9 @@
     <t>Ohmite</t>
   </si>
   <si>
-    <t>RES 1K OHM 1% 1/8W AXIAL</t>
-  </si>
-  <si>
-    <t>RNF18FTD1K00</t>
-  </si>
-  <si>
     <t>e.g. Stackpole</t>
   </si>
   <si>
-    <t>RNF18FTD1K00CT-ND</t>
-  </si>
-  <si>
     <t>40F2K0E</t>
   </si>
   <si>
@@ -322,6 +313,15 @@
   </si>
   <si>
     <t>5W is sufficient</t>
+  </si>
+  <si>
+    <t>RNF12FTD1K00CT-ND</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 1% 0.5W AXIAL</t>
+  </si>
+  <si>
+    <t>RNF12FTD1K00</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1193,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1213,16 +1213,16 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1242,16 +1242,16 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1271,16 +1271,16 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -1317,19 +1317,19 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>15</v>
@@ -1363,7 +1363,7 @@
         <v>73</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1392,25 +1392,30 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1418,12 +1423,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>45505</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/OffPCBPartsRev2c.xlsx
+++ b/OffPCBPartsRev2c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A07BDB-2A84-4621-898F-4ECF3819C568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EBC68-7F5B-44E3-810D-49624C7EABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2550" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
+    <workbookView xWindow="1050" yWindow="3420" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
   <si>
     <t>Quantity</t>
   </si>
@@ -267,9 +267,6 @@
     <t>2K</t>
   </si>
   <si>
-    <t>Added connector headers and calibration resistors</t>
-  </si>
-  <si>
     <t>CONN RCPT 2POS IDC 22AWG TIN</t>
   </si>
   <si>
@@ -322,13 +319,46 @@
   </si>
   <si>
     <t>RNF12FTD1K00</t>
+  </si>
+  <si>
+    <t>Connections to the 2mm banana jacks</t>
+  </si>
+  <si>
+    <t>WE-TEMA TOROIDAL EMI SUPPRESSION</t>
+  </si>
+  <si>
+    <t>732-782115020030-ND</t>
+  </si>
+  <si>
+    <t>Würth Elektronic</t>
+  </si>
+  <si>
+    <t>782115020030</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 976 OHM AXIAL 1LN</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>732-13783-ND</t>
+  </si>
+  <si>
+    <t>7427502</t>
+  </si>
+  <si>
+    <t>Added connector headers, calibration resistors, beads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +387,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -437,6 +479,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +815,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1193,7 +1244,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1201,10 +1252,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1213,16 +1264,16 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,10 +1281,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1242,16 +1293,16 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1259,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1271,16 +1322,16 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1288,148 +1339,212 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
+      <c r="A27" s="9">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="9">
+        <v>6</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>45505</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="C41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/OffPCBPartsRev2c.xlsx
+++ b/OffPCBPartsRev2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EBC68-7F5B-44E3-810D-49624C7EABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6B03E-7E66-4005-B713-A3C925F5FD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="3420" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>Quantity</t>
   </si>
@@ -336,19 +336,7 @@
     <t>782115020030</t>
   </si>
   <si>
-    <t>FERRITE BEAD 976 OHM AXIAL 1LN</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>732-13783-ND</t>
-  </si>
-  <si>
-    <t>7427502</t>
   </si>
   <si>
     <t>Added connector headers, calibration resistors, beads</t>
@@ -447,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -481,9 +469,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -802,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>99</v>
@@ -1369,36 +1354,44 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>6</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="12" t="s">
-        <v>72</v>
+      <c r="K30" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1409,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
@@ -1417,54 +1410,36 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1480,61 +1455,51 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>45505</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>45505</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1542,9 +1507,6 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/OffPCBPartsRev2c.xlsx
+++ b/OffPCBPartsRev2c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6B03E-7E66-4005-B713-A3C925F5FD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E377EF-E32B-45E7-BEE4-4022F6505011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="3420" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Quantity</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Added connector headers, calibration resistors, beads</t>
+  </si>
+  <si>
+    <t>for the B/G connections to the 2mm banana jacks</t>
   </si>
 </sst>
 </file>
@@ -790,7 +793,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>103</v>
@@ -1351,6 +1354,9 @@
       </c>
       <c r="K27" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
